--- a/DataBaseApi/Requests.xlsx
+++ b/DataBaseApi/Requests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\BooklessDocs\DataBaseApi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D89C5DA-A6DB-46B2-889F-42B64D941549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3D3C8F-32A5-445D-BD78-A443109CA077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19103" yWindow="-98" windowWidth="19395" windowHeight="10395" xr2:uid="{352D0892-0133-4DD4-A028-38D51003B9CE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>API Requests</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Api requests can be used in multiples places thats's why some requests will be defined multiple times, it should just show where we need what.</t>
   </si>
   <si>
-    <t>A object with all the user data :https://github.com/CodeChrisB/bookless/blob/master/Frontend/src/models/Profile/User.ts</t>
-  </si>
-  <si>
     <t>The hashed password from the user with the id n</t>
   </si>
   <si>
@@ -124,6 +121,33 @@
   </si>
   <si>
     <t>the current password as hash, the new password as hash</t>
+  </si>
+  <si>
+    <t>Product Component</t>
+  </si>
+  <si>
+    <t>A list with all products  customers</t>
+  </si>
+  <si>
+    <t>A sub part of the product list for example give me the product  entry 10-20)</t>
+  </si>
+  <si>
+    <t>id of the product</t>
+  </si>
+  <si>
+    <t>id of the product + product object</t>
+  </si>
+  <si>
+    <t>Delete a product</t>
+  </si>
+  <si>
+    <t>A product</t>
+  </si>
+  <si>
+    <t>Update a product</t>
+  </si>
+  <si>
+    <t>A object with all the user data :https://github.com/CodeChrisB/bookless/blob/frontendV1/Frontend/src/models/Profile/User.ts</t>
   </si>
 </sst>
 </file>
@@ -343,28 +367,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -693,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282D9FCE-CC64-4699-8149-5D8A2F25B81F}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:C27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -712,21 +736,21 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -738,11 +762,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -751,9 +775,9 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -763,9 +787,9 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
@@ -775,9 +799,9 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -787,9 +811,9 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -925,7 +949,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -933,24 +957,71 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
         <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
         <v>31</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/DataBaseApi/Requests.xlsx
+++ b/DataBaseApi/Requests.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\BooklessDocs\DataBaseApi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3D3C8F-32A5-445D-BD78-A443109CA077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92171198-1F17-4677-8017-53E9782C29BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19103" yWindow="-98" windowWidth="19395" windowHeight="10395" xr2:uid="{352D0892-0133-4DD4-A028-38D51003B9CE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{352D0892-0133-4DD4-A028-38D51003B9CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Methods" sheetId="1" r:id="rId1"/>
+    <sheet name="Facts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>API Requests</t>
   </si>
@@ -148,6 +149,9 @@
   </si>
   <si>
     <t>A object with all the user data :https://github.com/CodeChrisB/bookless/blob/frontendV1/Frontend/src/models/Profile/User.ts</t>
+  </si>
+  <si>
+    <t>All Ids have to be generated by the Backend.</t>
   </si>
 </sst>
 </file>
@@ -204,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -347,11 +351,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -364,6 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,6 +416,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282D9FCE-CC64-4699-8149-5D8A2F25B81F}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -731,26 +748,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -762,12 +779,12 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
@@ -775,10 +792,10 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
@@ -787,10 +804,10 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
@@ -799,10 +816,10 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
@@ -811,10 +828,10 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="1" t="s">
@@ -823,10 +840,10 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
@@ -1032,4 +1049,90 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C47666-4D12-4097-B8A2-0B3398B92872}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>